--- a/backend/process_prices.xlsx
+++ b/backend/process_prices.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Departman</t>
+          <t>Şube</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ARGE</t>
+          <t>Ziyapaşa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ARGE</t>
+          <t>Ziyapaşa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
